--- a/data/trans_orig/P14B34-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B34-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82426625-16EC-41B7-A9F0-227D6318D68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9520B40-CF33-4DE8-BF01-CF764B934AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1EC1EFF1-9368-4964-9EE2-3E3B9AA87C9C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{55A29F3A-79B0-460C-87B5-0CAFEB59C7BD}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -76,10 +76,10 @@
     <t>45,55%</t>
   </si>
   <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
   </si>
   <si>
     <t>—%</t>
@@ -91,10 +91,10 @@
     <t>54,45%</t>
   </si>
   <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
   </si>
   <si>
     <t>100%</t>
@@ -106,19 +106,19 @@
     <t>53,14%</t>
   </si>
   <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
   </si>
   <si>
     <t>46,86%</t>
   </si>
   <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -145,19 +145,19 @@
     <t>46,62%</t>
   </si>
   <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
   </si>
   <si>
     <t>53,38%</t>
   </si>
   <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -169,67 +169,67 @@
     <t>32,35%</t>
   </si>
   <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
   </si>
   <si>
     <t>67,65%</t>
   </si>
   <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
   </si>
   <si>
     <t>38,66%</t>
   </si>
   <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
   </si>
   <si>
     <t>61,34%</t>
   </si>
   <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
   </si>
   <si>
     <t>31,99%</t>
   </si>
   <si>
-    <t>79,23%</t>
+    <t>76,79%</t>
   </si>
   <si>
     <t>68,01%</t>
   </si>
   <si>
-    <t>20,77%</t>
+    <t>23,21%</t>
   </si>
   <si>
     <t>34,62%</t>
   </si>
   <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
   </si>
   <si>
     <t>65,38%</t>
   </si>
   <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
   </si>
   <si>
     <t>Población cuyo trastornos de próstata le limita en 2023 (Tasa respuesta: 3,17%)</t>
@@ -238,43 +238,43 @@
     <t>25,13%</t>
   </si>
   <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
   </si>
   <si>
     <t>74,87%</t>
   </si>
   <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
   </si>
   <si>
     <t>14,77%</t>
   </si>
   <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
   </si>
   <si>
     <t>85,23%</t>
   </si>
   <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
   </si>
   <si>
     <t>14,03%</t>
   </si>
   <si>
-    <t>4,65%</t>
+    <t>5,59%</t>
   </si>
   <si>
     <t>29,17%</t>
@@ -286,25 +286,25 @@
     <t>70,83%</t>
   </si>
   <si>
-    <t>95,35%</t>
+    <t>94,41%</t>
   </si>
   <si>
     <t>18,78%</t>
   </si>
   <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
   </si>
   <si>
     <t>81,22%</t>
   </si>
   <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
   </si>
 </sst>
 </file>
@@ -716,7 +716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26EB9F45-5D48-48EB-8D51-33571FA9A0F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063CEE60-0658-42CB-9B59-4FD8C017FEBD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1443,7 +1443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CD7DC3-215C-4B79-9052-7AE8F583066E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427D0B95-2065-4FF6-9FB2-3FB25B890BB0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2170,7 +2170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9374405-8386-480B-9425-E58A39C38B16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D92D45-7E25-471C-90A0-5B769693EDE7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14B34-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B34-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9520B40-CF33-4DE8-BF01-CF764B934AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30EC0611-7DEE-4300-8A99-DBF1C4F32D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{55A29F3A-79B0-460C-87B5-0CAFEB59C7BD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{79C80B9B-ED2E-445F-89C2-6BA1DA458D02}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -76,10 +76,10 @@
     <t>45,55%</t>
   </si>
   <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
   </si>
   <si>
     <t>—%</t>
@@ -91,10 +91,10 @@
     <t>54,45%</t>
   </si>
   <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
   </si>
   <si>
     <t>100%</t>
@@ -106,19 +106,19 @@
     <t>53,14%</t>
   </si>
   <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
   </si>
   <si>
     <t>46,86%</t>
   </si>
   <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -130,13 +130,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>80,45%</t>
+    <t>78,13%</t>
   </si>
   <si>
     <t>69,96%</t>
   </si>
   <si>
-    <t>19,55%</t>
+    <t>21,87%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -145,91 +145,91 @@
     <t>46,62%</t>
   </si>
   <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
   </si>
   <si>
     <t>53,38%</t>
   </si>
   <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyo trastornos de próstata le limita en 2015 (Tasa respuesta: 1,74%)</t>
+    <t>Población cuyo trastornos de próstata le limita en 2016 (Tasa respuesta: 1,74%)</t>
   </si>
   <si>
     <t>32,35%</t>
   </si>
   <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
   </si>
   <si>
     <t>67,65%</t>
   </si>
   <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
   </si>
   <si>
     <t>38,66%</t>
   </si>
   <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
   </si>
   <si>
     <t>61,34%</t>
   </si>
   <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
   </si>
   <si>
     <t>31,99%</t>
   </si>
   <si>
-    <t>76,79%</t>
+    <t>76,48%</t>
   </si>
   <si>
     <t>68,01%</t>
   </si>
   <si>
-    <t>23,21%</t>
+    <t>23,52%</t>
   </si>
   <si>
     <t>34,62%</t>
   </si>
   <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
   </si>
   <si>
     <t>65,38%</t>
   </si>
   <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
   </si>
   <si>
     <t>Población cuyo trastornos de próstata le limita en 2023 (Tasa respuesta: 3,17%)</t>
@@ -716,7 +716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063CEE60-0658-42CB-9B59-4FD8C017FEBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668EC638-E798-46F4-8FF5-9225CDE71345}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1443,7 +1443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427D0B95-2065-4FF6-9FB2-3FB25B890BB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15800193-C453-4790-B317-F61D89FAAEF4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2170,7 +2170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D92D45-7E25-471C-90A0-5B769693EDE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F16FB55-1ADF-43D4-960F-7CA26C47566F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
